--- a/Entregable 3/arbol de utilidad.xlsx
+++ b/Entregable 3/arbol de utilidad.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Documentos\isw\kryptonite\Entregable 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4460"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Utilidad</t>
   </si>
@@ -35,15 +35,9 @@
     <t>Integridad</t>
   </si>
   <si>
-    <t>Numero de Usuarios</t>
-  </si>
-  <si>
     <t>Disponibilidad</t>
   </si>
   <si>
-    <t>Validacion</t>
-  </si>
-  <si>
     <t>Disponibilidad del 99%</t>
   </si>
   <si>
@@ -56,33 +50,15 @@
     <t>Eficiencia de</t>
   </si>
   <si>
-    <t>busqueda</t>
-  </si>
-  <si>
     <t>Mostrar Resultados en</t>
   </si>
   <si>
-    <t xml:space="preserve"> menos de 5 Segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimo de resultados </t>
-  </si>
-  <si>
-    <t>por busqueda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Soportar a lo menos 50 </t>
   </si>
   <si>
     <t>usuarios simultaneos</t>
   </si>
   <si>
-    <t>El contenido debe ser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validado antes de </t>
-  </si>
-  <si>
     <t>ser mostrado</t>
   </si>
   <si>
@@ -108,6 +84,33 @@
   </si>
   <si>
     <t>Estabilidad</t>
+  </si>
+  <si>
+    <t>El contenido recomendado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debe ser validado antes de </t>
+  </si>
+  <si>
+    <t>búsqueda</t>
+  </si>
+  <si>
+    <t>Número de</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Validación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mínimo de resultados </t>
+  </si>
+  <si>
+    <t>por búsqueda</t>
+  </si>
+  <si>
+    <t>menos de 5 Segundos</t>
   </si>
 </sst>
 </file>
@@ -674,66 +677,66 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>370974</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>110289</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>724958</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26458</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector recto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9FA97B-A5F8-4892-9BE5-BEEE5F8B2B12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4534958" y="1871133"/>
+          <a:ext cx="1683809" cy="7408"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector recto 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9FA97B-A5F8-4892-9BE5-BEEE5F8B2B12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5038224" y="1824789"/>
-          <a:ext cx="1143501" cy="4011"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>842211</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>110289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121708</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -747,9 +750,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4652211" y="2396289"/>
-          <a:ext cx="1539039" cy="4011"/>
+        <a:xfrm flipV="1">
+          <a:off x="4476750" y="2336800"/>
+          <a:ext cx="1751542" cy="7408"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1474,17 +1477,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1492,18 +1495,18 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
@@ -1513,43 +1516,43 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1558,41 +1561,41 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1603,41 +1606,43 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1648,24 +1653,24 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1676,7 +1681,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1687,7 +1692,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1696,13 +1701,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -1710,16 +1715,16 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1728,11 +1733,11 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1743,7 +1748,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
